--- a/data/management/Management_information_BON_2016.xlsx
+++ b/data/management/Management_information_BON_2016.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marse\seadrive_root\Tien-Che\My Libraries\PhD_Tien\Project\Briwecs\BRIWECS_Data_Publication\data\management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F587712-2341-440B-AFF1-ECEE9309AA16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="25440" windowHeight="15930"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="25440" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON_2016" sheetId="4" r:id="rId1"/>
@@ -366,7 +372,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -951,11 +957,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,8 +1374,8 @@
       <c r="B44" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="7">
-        <v>0</v>
+      <c r="C44" s="8">
+        <v>42446</v>
       </c>
       <c r="D44" s="7">
         <v>0</v>
@@ -1403,8 +1409,8 @@
       <c r="B45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="7">
-        <v>0</v>
+      <c r="C45" s="8">
+        <v>42466</v>
       </c>
       <c r="D45" s="7">
         <v>0</v>
@@ -1438,8 +1444,8 @@
       <c r="B46" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="7">
-        <v>0</v>
+      <c r="C46" s="12">
+        <v>42517</v>
       </c>
       <c r="D46" s="7">
         <v>0</v>
@@ -2283,7 +2289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2297,7 +2303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
